--- a/data/trans_orig/P36BPD07_R-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_R-Nacimiento-trans_orig.xlsx
@@ -736,67 +736,67 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2596</v>
+        <v>455</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2693280</v>
+        <v>470733</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2650300</v>
+        <v>432317</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2731696</v>
+        <v>513713</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8512226900664297</v>
+        <v>0.1487773099335703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8376387666517867</v>
+        <v>0.1366355852704426</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8633644147295575</v>
+        <v>0.1623612333482133</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>2684</v>
+        <v>425</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2862325</v>
+        <v>429698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2821338</v>
+        <v>393772</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2898251</v>
+        <v>470685</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8694730350488836</v>
+        <v>0.1305269649511164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8570224540963423</v>
+        <v>0.1196138846891691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.880386115310831</v>
+        <v>0.1429775459036581</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>5280</v>
+        <v>880</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>5555606</v>
+        <v>900431</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5498256</v>
+        <v>847204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5608833</v>
+        <v>957781</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8605287962278257</v>
+        <v>0.1394712037721742</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8516456502002477</v>
+        <v>0.1312266068588558</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8687733931411441</v>
+        <v>0.1483543497997522</v>
       </c>
     </row>
     <row r="5">
@@ -807,67 +807,67 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>455</v>
+        <v>2596</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>470733</v>
+        <v>2693280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432317</v>
+        <v>2650300</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>513713</v>
+        <v>2731696</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1487773099335703</v>
+        <v>0.8512226900664297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1366355852704426</v>
+        <v>0.8376387666517867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1623612333482133</v>
+        <v>0.8633644147295575</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>425</v>
+        <v>2684</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>429698</v>
+        <v>2862325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>393772</v>
+        <v>2821338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>470685</v>
+        <v>2898251</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1305269649511164</v>
+        <v>0.8694730350488836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1196138846891691</v>
+        <v>0.8570224540963423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1429775459036581</v>
+        <v>0.880386115310831</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>880</v>
+        <v>5280</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>900431</v>
+        <v>5555606</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>847204</v>
+        <v>5498256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>957781</v>
+        <v>5608833</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1394712037721742</v>
+        <v>0.8605287962278257</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1312266068588558</v>
+        <v>0.8516456502002477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1483543497997522</v>
+        <v>0.8687733931411441</v>
       </c>
     </row>
     <row r="6">
@@ -953,67 +953,67 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>151526</v>
+        <v>55566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>136916</v>
+        <v>42277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164815</v>
+        <v>70176</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7316830090844578</v>
+        <v>0.2683169909155422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6611382515570035</v>
+        <v>0.204145144878509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.795854855121491</v>
+        <v>0.3388617484429965</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>192552</v>
+        <v>37692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179156</v>
+        <v>27145</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203099</v>
+        <v>51088</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8362953852897056</v>
+        <v>0.1637046147102944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7781149167766418</v>
+        <v>0.1178974183002871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.882102581699713</v>
+        <v>0.2218850832233582</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>344078</v>
+        <v>93258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>326161</v>
+        <v>75881</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>361455</v>
+        <v>111175</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7867582010067837</v>
+        <v>0.2132417989932162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7457908838107135</v>
+        <v>0.1735062529634794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8264937470365207</v>
+        <v>0.2542091161892865</v>
       </c>
     </row>
     <row r="8">
@@ -1024,67 +1024,67 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>55566</v>
+        <v>151526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42277</v>
+        <v>136916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70176</v>
+        <v>164815</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2683169909155422</v>
+        <v>0.7316830090844578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.204145144878509</v>
+        <v>0.6611382515570035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3388617484429965</v>
+        <v>0.795854855121491</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>37692</v>
+        <v>192552</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27145</v>
+        <v>179156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51088</v>
+        <v>203099</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1637046147102944</v>
+        <v>0.8362953852897056</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1178974183002871</v>
+        <v>0.7781149167766418</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2218850832233582</v>
+        <v>0.882102581699713</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>93258</v>
+        <v>344078</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75881</v>
+        <v>326161</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>111175</v>
+        <v>361455</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2132417989932162</v>
+        <v>0.7867582010067837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1735062529634794</v>
+        <v>0.7457908838107135</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2542091161892865</v>
+        <v>0.8264937470365207</v>
       </c>
     </row>
     <row r="9">
@@ -1170,67 +1170,67 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2711</v>
+        <v>497</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2844805</v>
+        <v>526300</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2798382</v>
+        <v>486506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2884599</v>
+        <v>572723</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8438791829695348</v>
+        <v>0.1561208170304652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8301083305203414</v>
+        <v>0.1443165739724557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8556834260275444</v>
+        <v>0.1698916694796587</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2860</v>
+        <v>460</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3054877</v>
+        <v>467390</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3010236</v>
+        <v>429208</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3093059</v>
+        <v>512031</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8673042737394177</v>
+        <v>0.1326957262605824</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8546303683740382</v>
+        <v>0.1218555774801523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8781444225198477</v>
+        <v>0.1453696316259617</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>5571</v>
+        <v>957</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>5899683</v>
+        <v>993690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5840141</v>
+        <v>936659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5956714</v>
+        <v>1053232</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8558485680194312</v>
+        <v>0.1441514319805688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8472109451832422</v>
+        <v>0.1358782141654866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8641217858345127</v>
+        <v>0.1527890548167577</v>
       </c>
     </row>
     <row r="11">
@@ -1241,67 +1241,67 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>497</v>
+        <v>2711</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>526300</v>
+        <v>2844805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486506</v>
+        <v>2798382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>572723</v>
+        <v>2884599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1561208170304652</v>
+        <v>0.8438791829695348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1443165739724557</v>
+        <v>0.8301083305203414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1698916694796587</v>
+        <v>0.8556834260275444</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>460</v>
+        <v>2860</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>467390</v>
+        <v>3054877</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>429208</v>
+        <v>3010236</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>512031</v>
+        <v>3093059</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1326957262605824</v>
+        <v>0.8673042737394177</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.8546303683740382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.8781444225198477</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>957</v>
+        <v>5571</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>993690</v>
+        <v>5899683</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>936659</v>
+        <v>5840141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1053232</v>
+        <v>5956714</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1441514319805688</v>
+        <v>0.8558485680194312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1358782141654866</v>
+        <v>0.8472109451832422</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1527890548167577</v>
+        <v>0.8641217858345127</v>
       </c>
     </row>
     <row r="12">
@@ -1625,67 +1625,67 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2289</v>
+        <v>833</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2304401</v>
+        <v>922739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2240502</v>
+        <v>868079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2359061</v>
+        <v>986638</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.714069028570175</v>
+        <v>0.285930971429825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6942686269320238</v>
+        <v>0.2689933505468191</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7310066494531815</v>
+        <v>0.3057313730679764</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>3942</v>
+        <v>1028</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2614201</v>
+        <v>810430</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2568562</v>
+        <v>762801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2661830</v>
+        <v>856069</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7633526076740339</v>
+        <v>0.2366473923259662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7500258580895843</v>
+        <v>0.2227397250717242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7772602749282754</v>
+        <v>0.2499741419104158</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>6231</v>
+        <v>1861</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>4918602</v>
+        <v>1733169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4840764</v>
+        <v>1662755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4989016</v>
+        <v>1811007</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7394424324012182</v>
+        <v>0.2605575675987817</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.72774069674411</v>
+        <v>0.24997171531164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7500282846883599</v>
+        <v>0.2722593032558898</v>
       </c>
     </row>
     <row r="5">
@@ -1696,67 +1696,67 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>833</v>
+        <v>2289</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>922739</v>
+        <v>2304401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>868079</v>
+        <v>2240502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>986638</v>
+        <v>2359061</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.285930971429825</v>
+        <v>0.714069028570175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2689933505468191</v>
+        <v>0.6942686269320238</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3057313730679764</v>
+        <v>0.7310066494531815</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1028</v>
+        <v>3942</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>810430</v>
+        <v>2614201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>762801</v>
+        <v>2568562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>856069</v>
+        <v>2661830</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2366473923259662</v>
+        <v>0.7633526076740339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2227397250717242</v>
+        <v>0.7500258580895843</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2499741419104158</v>
+        <v>0.7772602749282754</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>1861</v>
+        <v>6231</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>1733169</v>
+        <v>4918602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1662755</v>
+        <v>4840764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1811007</v>
+        <v>4989016</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2605575675987817</v>
+        <v>0.7394424324012182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.24997171531164</v>
+        <v>0.72774069674411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2722593032558898</v>
+        <v>0.7500282846883599</v>
       </c>
     </row>
     <row r="6">
@@ -1842,67 +1842,67 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>215463</v>
+        <v>82681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194682</v>
+        <v>66515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231629</v>
+        <v>103462</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7226794286796019</v>
+        <v>0.2773205713203982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6529809263578904</v>
+        <v>0.2230952591909796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7769047408090205</v>
+        <v>0.3470190736421098</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>221649</v>
+        <v>71772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206374</v>
+        <v>56493</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>236928</v>
+        <v>87047</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7553962803434147</v>
+        <v>0.2446037196565853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7033361410890281</v>
+        <v>0.1925306145952828</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8074693854047175</v>
+        <v>0.2966638589109721</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>470</v>
+        <v>145</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>437112</v>
+        <v>154454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>411977</v>
+        <v>132226</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>459340</v>
+        <v>179589</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7389072459313319</v>
+        <v>0.261092754068668</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6964183719664676</v>
+        <v>0.2235191394056461</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7764808605943538</v>
+        <v>0.3035816280335321</v>
       </c>
     </row>
     <row r="8">
@@ -1913,67 +1913,67 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>82681</v>
+        <v>215463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66515</v>
+        <v>194682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103462</v>
+        <v>231629</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2773205713203982</v>
+        <v>0.7226794286796019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2230952591909796</v>
+        <v>0.6529809263578904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3470190736421098</v>
+        <v>0.7769047408090205</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>71772</v>
+        <v>221649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56493</v>
+        <v>206374</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87047</v>
+        <v>236928</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2446037196565853</v>
+        <v>0.7553962803434147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1925306145952828</v>
+        <v>0.7033361410890281</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2966638589109721</v>
+        <v>0.8074693854047175</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>145</v>
+        <v>470</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>154454</v>
+        <v>437112</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>132226</v>
+        <v>411977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179589</v>
+        <v>459340</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.261092754068668</v>
+        <v>0.7389072459313319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2235191394056461</v>
+        <v>0.6964183719664676</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3035816280335321</v>
+        <v>0.7764808605943538</v>
       </c>
     </row>
     <row r="9">
@@ -2059,67 +2059,67 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2470</v>
+        <v>899</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2519863</v>
+        <v>1005421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2455704</v>
+        <v>947100</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2578184</v>
+        <v>1069580</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7147972373360794</v>
+        <v>0.2852027626639206</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6965975299007449</v>
+        <v>0.2686591162297913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7313408837702088</v>
+        <v>0.3034024700992556</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>4231</v>
+        <v>1107</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2835850</v>
+        <v>882202</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2788960</v>
+        <v>834776</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2883276</v>
+        <v>929092</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.762724710145792</v>
+        <v>0.237275289854208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7501131377763268</v>
+        <v>0.2245196714684663</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7754803285315337</v>
+        <v>0.2498868622236732</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>6701</v>
+        <v>2006</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>5355713</v>
+        <v>1887623</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5273005</v>
+        <v>1812027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5431309</v>
+        <v>1970331</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7393987235423645</v>
+        <v>0.2606012764576356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7279802321108997</v>
+        <v>0.2501647641304121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.749835235869588</v>
+        <v>0.2720197678891003</v>
       </c>
     </row>
     <row r="11">
@@ -2130,67 +2130,67 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>899</v>
+        <v>2470</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1005421</v>
+        <v>2519863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>947100</v>
+        <v>2455704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1069580</v>
+        <v>2578184</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2852027626639206</v>
+        <v>0.7147972373360794</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2686591162297913</v>
+        <v>0.6965975299007449</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3034024700992556</v>
+        <v>0.7313408837702088</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1107</v>
+        <v>4231</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>882202</v>
+        <v>2835850</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>834776</v>
+        <v>2788960</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>929092</v>
+        <v>2883276</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.237275289854208</v>
+        <v>0.762724710145792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2245196714684663</v>
+        <v>0.7501131377763268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2498868622236732</v>
+        <v>0.7754803285315337</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>2006</v>
+        <v>6701</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>1887623</v>
+        <v>5355713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1812027</v>
+        <v>5273005</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1970331</v>
+        <v>5431309</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2606012764576356</v>
+        <v>0.7393987235423645</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2501647641304121</v>
+        <v>0.7279802321108997</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2720197678891003</v>
+        <v>0.749835235869588</v>
       </c>
     </row>
     <row r="12">
